--- a/Vasklister/Excel/vaskeliste_v3.0_sample.xlsx
+++ b/Vasklister/Excel/vaskeliste_v3.0_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6004" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="43">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -137,6 +137,12 @@
   </si>
   <si>
     <t>_4_Message</t>
+  </si>
+  <si>
+    <t>AG</t>
+  </si>
+  <si>
+    <t>123</t>
   </si>
 </sst>
 </file>
@@ -482,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +645,12 @@
       <c r="S2" s="1" t="s">
         <v>31</v>
       </c>
+      <c r="T2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">

--- a/Vasklister/Excel/vaskeliste_v3.0_sample.xlsx
+++ b/Vasklister/Excel/vaskeliste_v3.0_sample.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6006" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6008" uniqueCount="45">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>123</t>
+  </si>
+  <si>
+    <t>Kommune_Nr</t>
+  </si>
+  <si>
+    <t>11111</t>
   </si>
 </sst>
 </file>
@@ -486,117 +492,120 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AB300"/>
+  <dimension ref="A1:AC300"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="12.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.42578125" style="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="11.42578125" style="1"/>
-    <col min="13" max="13" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="11.42578125" style="1"/>
-    <col min="19" max="19" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="11.42578125" style="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
-    <col min="24" max="24" width="15.85546875" customWidth="1"/>
+    <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="17.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="11.42578125" style="1"/>
+    <col min="14" max="14" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="19" width="11.42578125" style="1"/>
+    <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="11.42578125" style="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>34</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>21</v>
       </c>
@@ -604,25 +613,25 @@
         <v>22</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>26</v>
@@ -631,53 +640,53 @@
         <v>26</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="Q2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="R2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="S2" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="T2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="1" t="s">
+      <c r="U2" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J3" s="1" t="s">
@@ -713,33 +722,33 @@
       <c r="T3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U3" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J4" s="1" t="s">
@@ -775,33 +784,33 @@
       <c r="T4" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U4" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="E5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="H5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J5" s="1" t="s">
@@ -837,33 +846,33 @@
       <c r="T5" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U5" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" s="1" t="s">
+      <c r="H6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J6" s="1" t="s">
@@ -899,33 +908,33 @@
       <c r="T6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U6" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="1" t="s">
+      <c r="E7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="H7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J7" s="1" t="s">
@@ -961,33 +970,33 @@
       <c r="T7" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="1" t="s">
+      <c r="H8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="1" t="s">
@@ -1023,33 +1032,33 @@
       <c r="T8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U8" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J9" s="1" t="s">
@@ -1085,33 +1094,33 @@
       <c r="T9" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="E10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" s="1" t="s">
+      <c r="H10" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J10" s="1" t="s">
@@ -1147,33 +1156,33 @@
       <c r="T10" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U10" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" s="1" t="s">
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="1" t="s">
+      <c r="H11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J11" s="1" t="s">
@@ -1209,33 +1218,33 @@
       <c r="T11" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U11" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="1" t="s">
+      <c r="E12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H12" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" s="1" t="s">
+      <c r="H12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J12" s="1" t="s">
@@ -1271,33 +1280,33 @@
       <c r="T12" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U12" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G13" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" s="1" t="s">
+      <c r="H13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J13" s="1" t="s">
@@ -1333,33 +1342,33 @@
       <c r="T13" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U13" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="1" t="s">
+      <c r="H14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J14" s="1" t="s">
@@ -1395,33 +1404,33 @@
       <c r="T14" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="15" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U14" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F15" s="1" t="s">
+      <c r="E15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G15" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="1" t="s">
+      <c r="H15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J15" s="1" t="s">
@@ -1457,33 +1466,33 @@
       <c r="T15" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="16" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="U15" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="1" t="s">
+      <c r="E16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" s="1" t="s">
+      <c r="H16" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J16" s="1" t="s">
@@ -1519,33 +1528,33 @@
       <c r="T16" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U16" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G17" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H17" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="1" t="s">
+      <c r="H17" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J17" s="1" t="s">
@@ -1581,33 +1590,33 @@
       <c r="T17" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U17" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="1" t="s">
+      <c r="E18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="H18" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J18" s="1" t="s">
@@ -1643,33 +1652,33 @@
       <c r="T18" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U18" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H19" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" s="1" t="s">
+      <c r="H19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J19" s="1" t="s">
@@ -1705,33 +1714,33 @@
       <c r="T19" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U19" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F20" s="1" t="s">
+      <c r="E20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J20" s="1" t="s">
@@ -1767,33 +1776,33 @@
       <c r="T20" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U20" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="E21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H21" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="1" t="s">
+      <c r="H21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J21" s="1" t="s">
@@ -1829,33 +1838,33 @@
       <c r="T21" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22" s="1" t="s">
+      <c r="E22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G22" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="1" t="s">
+      <c r="H22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="1" t="s">
@@ -1891,33 +1900,33 @@
       <c r="T22" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U22" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" s="1" t="s">
+      <c r="E23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" s="1" t="s">
+      <c r="H23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J23" s="1" t="s">
@@ -1953,33 +1962,33 @@
       <c r="T23" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U23" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C24" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" s="1" t="s">
+      <c r="E24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" s="1" t="s">
+      <c r="H24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J24" s="1" t="s">
@@ -2015,33 +2024,33 @@
       <c r="T24" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U24" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F25" s="1" t="s">
+      <c r="E25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H25" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" s="1" t="s">
+      <c r="H25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J25" s="1" t="s">
@@ -2077,33 +2086,33 @@
       <c r="T25" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U25" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H26" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" s="1" t="s">
+      <c r="H26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J26" s="1" t="s">
@@ -2139,33 +2148,33 @@
       <c r="T26" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U26" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H27" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="1" t="s">
+      <c r="H27" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I27" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J27" s="1" t="s">
@@ -2201,33 +2210,33 @@
       <c r="T27" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U27" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C28" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H28" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J28" s="1" t="s">
@@ -2263,33 +2272,33 @@
       <c r="T28" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U28" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C29" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F29" s="1" t="s">
+      <c r="E29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" s="1" t="s">
+      <c r="H29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
@@ -2325,33 +2334,33 @@
       <c r="T29" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U29" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C30" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="1" t="s">
+      <c r="E30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H30" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="1" t="s">
+      <c r="H30" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I30" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J30" s="1" t="s">
@@ -2387,33 +2396,33 @@
       <c r="T30" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G31" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="1" t="s">
+      <c r="H31" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I31" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J31" s="1" t="s">
@@ -2449,33 +2458,33 @@
       <c r="T31" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U31" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C32" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" s="1" t="s">
+      <c r="E32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" s="1" t="s">
+      <c r="H32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J32" s="1" t="s">
@@ -2511,33 +2520,33 @@
       <c r="T32" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U32" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" s="1" t="s">
+      <c r="E33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" s="1" t="s">
+      <c r="H33" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I33" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
@@ -2573,33 +2582,33 @@
       <c r="T33" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U33" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H34" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" s="1" t="s">
+      <c r="H34" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J34" s="1" t="s">
@@ -2635,33 +2644,33 @@
       <c r="T34" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U34" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C35" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F35" s="1" t="s">
+      <c r="E35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G35" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H35" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" s="1" t="s">
+      <c r="H35" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I35" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
@@ -2697,33 +2706,33 @@
       <c r="T35" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U35" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H36" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" s="1" t="s">
+      <c r="H36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I36" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J36" s="1" t="s">
@@ -2759,33 +2768,33 @@
       <c r="T36" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U36" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H37" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" s="1" t="s">
+      <c r="H37" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I37" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J37" s="1" t="s">
@@ -2821,33 +2830,33 @@
       <c r="T37" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C38" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H38" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" s="1" t="s">
+      <c r="H38" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J38" s="1" t="s">
@@ -2883,33 +2892,33 @@
       <c r="T38" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U38" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C39" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H39" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" s="1" t="s">
+      <c r="H39" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I39" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J39" s="1" t="s">
@@ -2945,33 +2954,33 @@
       <c r="T39" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U39" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C40" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" s="1" t="s">
+      <c r="E40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H40" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" s="1" t="s">
+      <c r="H40" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I40" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J40" s="1" t="s">
@@ -3007,33 +3016,33 @@
       <c r="T40" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U40" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" s="1" t="s">
+      <c r="H41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I41" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J41" s="1" t="s">
@@ -3069,33 +3078,33 @@
       <c r="T41" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U41" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C42" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F42" s="1" t="s">
+      <c r="E42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G42" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" s="1" t="s">
+      <c r="H42" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I42" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J42" s="1" t="s">
@@ -3131,33 +3140,33 @@
       <c r="T42" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U42" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C43" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F43" s="1" t="s">
+      <c r="E43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G43" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" s="1" t="s">
+      <c r="H43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I43" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J43" s="1" t="s">
@@ -3193,33 +3202,33 @@
       <c r="T43" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U43" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C44" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F44" s="1" t="s">
+      <c r="E44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H44" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" s="1" t="s">
+      <c r="H44" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I44" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J44" s="1" t="s">
@@ -3255,33 +3264,33 @@
       <c r="T44" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U44" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C45" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F45" s="1" t="s">
+      <c r="E45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G45" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" s="1" t="s">
+      <c r="H45" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J45" s="1" t="s">
@@ -3317,33 +3326,33 @@
       <c r="T45" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U45" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C46" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G46" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H46" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" s="1" t="s">
+      <c r="H46" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I46" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J46" s="1" t="s">
@@ -3379,33 +3388,33 @@
       <c r="T46" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U46" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C47" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F47" s="1" t="s">
+      <c r="E47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H47" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" s="1" t="s">
+      <c r="H47" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I47" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J47" s="1" t="s">
@@ -3441,33 +3450,33 @@
       <c r="T47" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U47" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C48" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" s="1" t="s">
+      <c r="H48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I48" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J48" s="1" t="s">
@@ -3503,33 +3512,33 @@
       <c r="T48" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U48" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C49" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F49" s="1" t="s">
+      <c r="E49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F49" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H49" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" s="1" t="s">
+      <c r="H49" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I49" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J49" s="1" t="s">
@@ -3565,33 +3574,33 @@
       <c r="T49" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U49" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50" s="1" t="s">
+      <c r="E50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H50" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" s="1" t="s">
+      <c r="H50" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I50" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J50" s="1" t="s">
@@ -3627,33 +3636,33 @@
       <c r="T50" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U50" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C51" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F51" s="1" t="s">
+      <c r="E51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H51" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" s="1" t="s">
+      <c r="H51" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I51" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J51" s="1" t="s">
@@ -3689,33 +3698,33 @@
       <c r="T51" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U51" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" s="1" t="s">
+      <c r="H52" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I52" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J52" s="1" t="s">
@@ -3751,33 +3760,33 @@
       <c r="T52" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U52" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C53" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H53" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" s="1" t="s">
+      <c r="H53" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I53" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J53" s="1" t="s">
@@ -3813,33 +3822,33 @@
       <c r="T53" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U53" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C54" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F54" s="1" t="s">
+      <c r="E54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H54" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" s="1" t="s">
+      <c r="H54" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I54" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J54" s="1" t="s">
@@ -3875,33 +3884,33 @@
       <c r="T54" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U54" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C55" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F55" s="1" t="s">
+      <c r="E55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H55" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" s="1" t="s">
+      <c r="H55" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I55" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J55" s="1" t="s">
@@ -3937,33 +3946,33 @@
       <c r="T55" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U55" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C56" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F56" s="1" t="s">
+      <c r="E56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" s="1" t="s">
+      <c r="H56" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I56" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J56" s="1" t="s">
@@ -3999,33 +4008,33 @@
       <c r="T56" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U56" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C57" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F57" s="1" t="s">
+      <c r="E57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" s="1" t="s">
+      <c r="H57" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I57" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J57" s="1" t="s">
@@ -4061,33 +4070,33 @@
       <c r="T57" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U57" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F58" s="1" t="s">
+      <c r="E58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" s="1" t="s">
+      <c r="H58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J58" s="1" t="s">
@@ -4123,33 +4132,33 @@
       <c r="T58" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U58" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F59" s="1" t="s">
+      <c r="E59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H59" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" s="1" t="s">
+      <c r="H59" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I59" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J59" s="1" t="s">
@@ -4185,33 +4194,33 @@
       <c r="T59" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U59" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C60" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F60" s="1" t="s">
+      <c r="E60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H60" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" s="1" t="s">
+      <c r="H60" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="1" t="s">
@@ -4247,33 +4256,33 @@
       <c r="T60" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U60" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C61" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F61" s="1" t="s">
+      <c r="E61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H61" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" s="1" t="s">
+      <c r="H61" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I61" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J61" s="1" t="s">
@@ -4309,33 +4318,33 @@
       <c r="T61" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U61" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="1" t="s">
+      <c r="E62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H62" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" s="1" t="s">
+      <c r="H62" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I62" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J62" s="1" t="s">
@@ -4371,33 +4380,33 @@
       <c r="T62" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F63" s="1" t="s">
+      <c r="E63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H63" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" s="1" t="s">
+      <c r="H63" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I63" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J63" s="1" t="s">
@@ -4433,33 +4442,33 @@
       <c r="T63" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C64" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F64" s="1" t="s">
+      <c r="E64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H64" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" s="1" t="s">
+      <c r="H64" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I64" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J64" s="1" t="s">
@@ -4495,33 +4504,33 @@
       <c r="T64" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C65" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F65" s="1" t="s">
+      <c r="E65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H65" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" s="1" t="s">
+      <c r="H65" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J65" s="1" t="s">
@@ -4557,33 +4566,33 @@
       <c r="T65" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C66" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F66" s="1" t="s">
+      <c r="E66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H66" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" s="1" t="s">
+      <c r="H66" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I66" s="3" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -4619,17 +4628,17 @@
       <c r="T66" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C67" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D67" s="1" t="s">
         <v>20</v>
       </c>
@@ -4681,17 +4690,17 @@
       <c r="T67" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C68" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D68" s="1" t="s">
         <v>20</v>
       </c>
@@ -4743,17 +4752,17 @@
       <c r="T68" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U68" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C69" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D69" s="1" t="s">
         <v>20</v>
       </c>
@@ -4805,17 +4814,17 @@
       <c r="T69" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U69" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C70" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D70" s="1" t="s">
         <v>20</v>
       </c>
@@ -4867,17 +4876,17 @@
       <c r="T70" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C71" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D71" s="1" t="s">
         <v>20</v>
       </c>
@@ -4929,17 +4938,17 @@
       <c r="T71" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U71" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C72" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D72" s="1" t="s">
         <v>20</v>
       </c>
@@ -4991,17 +5000,17 @@
       <c r="T72" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U72" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C73" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D73" s="1" t="s">
         <v>20</v>
       </c>
@@ -5053,17 +5062,17 @@
       <c r="T73" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C74" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D74" s="1" t="s">
         <v>20</v>
       </c>
@@ -5115,17 +5124,17 @@
       <c r="T74" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C75" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D75" s="1" t="s">
         <v>20</v>
       </c>
@@ -5177,17 +5186,17 @@
       <c r="T75" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U75" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C76" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D76" s="1" t="s">
         <v>20</v>
       </c>
@@ -5239,17 +5248,17 @@
       <c r="T76" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C77" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D77" s="1" t="s">
         <v>20</v>
       </c>
@@ -5301,17 +5310,17 @@
       <c r="T77" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C78" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D78" s="1" t="s">
         <v>20</v>
       </c>
@@ -5363,17 +5372,17 @@
       <c r="T78" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C79" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D79" s="1" t="s">
         <v>20</v>
       </c>
@@ -5425,17 +5434,17 @@
       <c r="T79" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C80" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D80" s="1" t="s">
         <v>20</v>
       </c>
@@ -5487,17 +5496,17 @@
       <c r="T80" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C81" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D81" s="1" t="s">
         <v>20</v>
       </c>
@@ -5549,17 +5558,17 @@
       <c r="T81" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U81" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C82" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D82" s="1" t="s">
         <v>20</v>
       </c>
@@ -5611,17 +5620,17 @@
       <c r="T82" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C83" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D83" s="1" t="s">
         <v>20</v>
       </c>
@@ -5673,17 +5682,17 @@
       <c r="T83" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C84" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D84" s="1" t="s">
         <v>20</v>
       </c>
@@ -5735,17 +5744,17 @@
       <c r="T84" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U84" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C85" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D85" s="1" t="s">
         <v>20</v>
       </c>
@@ -5797,17 +5806,17 @@
       <c r="T85" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C86" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D86" s="1" t="s">
         <v>20</v>
       </c>
@@ -5859,17 +5868,17 @@
       <c r="T86" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C87" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D87" s="1" t="s">
         <v>20</v>
       </c>
@@ -5921,17 +5930,17 @@
       <c r="T87" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C88" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D88" s="1" t="s">
         <v>20</v>
       </c>
@@ -5983,17 +5992,17 @@
       <c r="T88" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C89" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D89" s="1" t="s">
         <v>20</v>
       </c>
@@ -6045,17 +6054,17 @@
       <c r="T89" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C90" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D90" s="1" t="s">
         <v>20</v>
       </c>
@@ -6107,17 +6116,17 @@
       <c r="T90" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C91" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D91" s="1" t="s">
         <v>20</v>
       </c>
@@ -6169,17 +6178,17 @@
       <c r="T91" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U91" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C92" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D92" s="1" t="s">
         <v>20</v>
       </c>
@@ -6231,17 +6240,17 @@
       <c r="T92" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C93" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D93" s="1" t="s">
         <v>20</v>
       </c>
@@ -6293,17 +6302,17 @@
       <c r="T93" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C94" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D94" s="1" t="s">
         <v>20</v>
       </c>
@@ -6355,17 +6364,17 @@
       <c r="T94" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C95" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D95" s="1" t="s">
         <v>20</v>
       </c>
@@ -6417,17 +6426,17 @@
       <c r="T95" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U95" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C96" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D96" s="1" t="s">
         <v>20</v>
       </c>
@@ -6479,17 +6488,17 @@
       <c r="T96" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C97" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D97" s="1" t="s">
         <v>20</v>
       </c>
@@ -6541,17 +6550,17 @@
       <c r="T97" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C98" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D98" s="1" t="s">
         <v>20</v>
       </c>
@@ -6603,17 +6612,17 @@
       <c r="T98" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C99" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D99" s="1" t="s">
         <v>20</v>
       </c>
@@ -6665,17 +6674,17 @@
       <c r="T99" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C100" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D100" s="1" t="s">
         <v>20</v>
       </c>
@@ -6727,17 +6736,17 @@
       <c r="T100" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U100" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C101" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D101" s="1" t="s">
         <v>20</v>
       </c>
@@ -6789,17 +6798,17 @@
       <c r="T101" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U101" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C102" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D102" s="1" t="s">
         <v>20</v>
       </c>
@@ -6851,17 +6860,17 @@
       <c r="T102" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U102" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C103" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D103" s="1" t="s">
         <v>20</v>
       </c>
@@ -6913,17 +6922,17 @@
       <c r="T103" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U103" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C104" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D104" s="1" t="s">
         <v>20</v>
       </c>
@@ -6975,17 +6984,17 @@
       <c r="T104" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U104" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C105" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D105" s="1" t="s">
         <v>20</v>
       </c>
@@ -7037,17 +7046,17 @@
       <c r="T105" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U105" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C106" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D106" s="1" t="s">
         <v>20</v>
       </c>
@@ -7099,17 +7108,17 @@
       <c r="T106" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U106" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C107" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D107" s="1" t="s">
         <v>20</v>
       </c>
@@ -7161,17 +7170,17 @@
       <c r="T107" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U107" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C108" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D108" s="1" t="s">
         <v>20</v>
       </c>
@@ -7223,17 +7232,17 @@
       <c r="T108" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U108" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C109" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D109" s="1" t="s">
         <v>20</v>
       </c>
@@ -7285,17 +7294,17 @@
       <c r="T109" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U109" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C110" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D110" s="1" t="s">
         <v>20</v>
       </c>
@@ -7347,17 +7356,17 @@
       <c r="T110" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U110" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C111" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D111" s="1" t="s">
         <v>20</v>
       </c>
@@ -7409,17 +7418,17 @@
       <c r="T111" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U111" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C112" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D112" s="1" t="s">
         <v>20</v>
       </c>
@@ -7471,17 +7480,17 @@
       <c r="T112" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U112" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C113" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D113" s="1" t="s">
         <v>20</v>
       </c>
@@ -7533,17 +7542,17 @@
       <c r="T113" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U113" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D114" s="1" t="s">
         <v>20</v>
       </c>
@@ -7595,17 +7604,17 @@
       <c r="T114" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U114" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D115" s="1" t="s">
         <v>20</v>
       </c>
@@ -7657,17 +7666,17 @@
       <c r="T115" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U115" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C116" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D116" s="1" t="s">
         <v>20</v>
       </c>
@@ -7719,17 +7728,17 @@
       <c r="T116" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U116" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C117" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D117" s="1" t="s">
         <v>20</v>
       </c>
@@ -7781,17 +7790,17 @@
       <c r="T117" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U117" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C118" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D118" s="1" t="s">
         <v>20</v>
       </c>
@@ -7843,17 +7852,17 @@
       <c r="T118" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U118" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C119" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D119" s="1" t="s">
         <v>20</v>
       </c>
@@ -7905,17 +7914,17 @@
       <c r="T119" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U119" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C120" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D120" s="1" t="s">
         <v>20</v>
       </c>
@@ -7967,17 +7976,17 @@
       <c r="T120" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U120" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C121" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D121" s="1" t="s">
         <v>20</v>
       </c>
@@ -8029,17 +8038,17 @@
       <c r="T121" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U121" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C122" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D122" s="1" t="s">
         <v>20</v>
       </c>
@@ -8091,17 +8100,17 @@
       <c r="T122" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U122" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C123" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D123" s="1" t="s">
         <v>20</v>
       </c>
@@ -8153,17 +8162,17 @@
       <c r="T123" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U123" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C124" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D124" s="1" t="s">
         <v>20</v>
       </c>
@@ -8215,17 +8224,17 @@
       <c r="T124" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U124" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C125" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D125" s="1" t="s">
         <v>20</v>
       </c>
@@ -8277,17 +8286,17 @@
       <c r="T125" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U125" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C126" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D126" s="1" t="s">
         <v>20</v>
       </c>
@@ -8339,17 +8348,17 @@
       <c r="T126" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U126" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C127" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D127" s="1" t="s">
         <v>20</v>
       </c>
@@ -8401,17 +8410,17 @@
       <c r="T127" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U127" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C128" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D128" s="1" t="s">
         <v>20</v>
       </c>
@@ -8463,17 +8472,17 @@
       <c r="T128" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U128" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C129" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D129" s="1" t="s">
         <v>20</v>
       </c>
@@ -8525,17 +8534,17 @@
       <c r="T129" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U129" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C130" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D130" s="1" t="s">
         <v>20</v>
       </c>
@@ -8587,17 +8596,17 @@
       <c r="T130" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U130" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C131" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D131" s="1" t="s">
         <v>20</v>
       </c>
@@ -8649,17 +8658,17 @@
       <c r="T131" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U131" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C132" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D132" s="1" t="s">
         <v>20</v>
       </c>
@@ -8711,17 +8720,17 @@
       <c r="T132" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U132" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C133" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D133" s="1" t="s">
         <v>20</v>
       </c>
@@ -8773,17 +8782,17 @@
       <c r="T133" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U133" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C134" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D134" s="1" t="s">
         <v>20</v>
       </c>
@@ -8835,17 +8844,17 @@
       <c r="T134" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U134" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C135" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D135" s="1" t="s">
         <v>20</v>
       </c>
@@ -8897,17 +8906,17 @@
       <c r="T135" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U135" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C136" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D136" s="1" t="s">
         <v>20</v>
       </c>
@@ -8959,17 +8968,17 @@
       <c r="T136" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U136" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C137" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D137" s="1" t="s">
         <v>20</v>
       </c>
@@ -9021,17 +9030,17 @@
       <c r="T137" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U137" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C138" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D138" s="1" t="s">
         <v>20</v>
       </c>
@@ -9083,17 +9092,17 @@
       <c r="T138" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U138" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C139" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D139" s="1" t="s">
         <v>20</v>
       </c>
@@ -9145,17 +9154,17 @@
       <c r="T139" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U139" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C140" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D140" s="1" t="s">
         <v>20</v>
       </c>
@@ -9207,17 +9216,17 @@
       <c r="T140" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U140" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D141" s="1" t="s">
         <v>20</v>
       </c>
@@ -9269,17 +9278,17 @@
       <c r="T141" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U141" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D142" s="1" t="s">
         <v>20</v>
       </c>
@@ -9331,17 +9340,17 @@
       <c r="T142" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U142" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D143" s="1" t="s">
         <v>20</v>
       </c>
@@ -9393,17 +9402,17 @@
       <c r="T143" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U143" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C144" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D144" s="1" t="s">
         <v>20</v>
       </c>
@@ -9455,17 +9464,17 @@
       <c r="T144" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U144" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C145" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D145" s="1" t="s">
         <v>20</v>
       </c>
@@ -9517,17 +9526,17 @@
       <c r="T145" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U145" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C146" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D146" s="1" t="s">
         <v>20</v>
       </c>
@@ -9579,17 +9588,17 @@
       <c r="T146" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U146" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C147" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D147" s="1" t="s">
         <v>20</v>
       </c>
@@ -9641,17 +9650,17 @@
       <c r="T147" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U147" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C148" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D148" s="1" t="s">
         <v>20</v>
       </c>
@@ -9703,17 +9712,17 @@
       <c r="T148" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U148" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C149" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D149" s="1" t="s">
         <v>20</v>
       </c>
@@ -9765,17 +9774,17 @@
       <c r="T149" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U149" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C150" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D150" s="1" t="s">
         <v>20</v>
       </c>
@@ -9827,17 +9836,17 @@
       <c r="T150" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U150" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C151" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D151" s="1" t="s">
         <v>20</v>
       </c>
@@ -9889,17 +9898,17 @@
       <c r="T151" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U151" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C152" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D152" s="1" t="s">
         <v>20</v>
       </c>
@@ -9951,17 +9960,17 @@
       <c r="T152" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U152" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C153" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D153" s="1" t="s">
         <v>20</v>
       </c>
@@ -10013,17 +10022,17 @@
       <c r="T153" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U153" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D154" s="1" t="s">
         <v>20</v>
       </c>
@@ -10075,17 +10084,17 @@
       <c r="T154" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U154" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C155" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D155" s="1" t="s">
         <v>20</v>
       </c>
@@ -10137,17 +10146,17 @@
       <c r="T155" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U155" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C156" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D156" s="1" t="s">
         <v>20</v>
       </c>
@@ -10199,17 +10208,17 @@
       <c r="T156" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U156" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C157" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D157" s="1" t="s">
         <v>20</v>
       </c>
@@ -10261,17 +10270,17 @@
       <c r="T157" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U157" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C158" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D158" s="1" t="s">
         <v>20</v>
       </c>
@@ -10323,17 +10332,17 @@
       <c r="T158" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U158" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C159" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D159" s="1" t="s">
         <v>20</v>
       </c>
@@ -10385,17 +10394,17 @@
       <c r="T159" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U159" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C160" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D160" s="1" t="s">
         <v>20</v>
       </c>
@@ -10447,17 +10456,17 @@
       <c r="T160" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U160" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C161" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D161" s="1" t="s">
         <v>20</v>
       </c>
@@ -10509,17 +10518,17 @@
       <c r="T161" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U161" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C162" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D162" s="1" t="s">
         <v>20</v>
       </c>
@@ -10571,17 +10580,17 @@
       <c r="T162" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U162" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C163" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D163" s="1" t="s">
         <v>20</v>
       </c>
@@ -10633,17 +10642,17 @@
       <c r="T163" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U163" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C164" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D164" s="1" t="s">
         <v>20</v>
       </c>
@@ -10695,17 +10704,17 @@
       <c r="T164" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U164" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C165" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D165" s="1" t="s">
         <v>20</v>
       </c>
@@ -10757,17 +10766,17 @@
       <c r="T165" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U165" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C166" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D166" s="1" t="s">
         <v>20</v>
       </c>
@@ -10819,17 +10828,17 @@
       <c r="T166" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U166" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C167" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D167" s="1" t="s">
         <v>20</v>
       </c>
@@ -10881,17 +10890,17 @@
       <c r="T167" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U167" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C168" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D168" s="1" t="s">
         <v>20</v>
       </c>
@@ -10943,17 +10952,17 @@
       <c r="T168" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U168" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C169" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D169" s="1" t="s">
         <v>20</v>
       </c>
@@ -11005,17 +11014,17 @@
       <c r="T169" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U169" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C170" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D170" s="1" t="s">
         <v>20</v>
       </c>
@@ -11067,17 +11076,17 @@
       <c r="T170" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U170" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C171" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D171" s="1" t="s">
         <v>20</v>
       </c>
@@ -11129,17 +11138,17 @@
       <c r="T171" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U171" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C172" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D172" s="1" t="s">
         <v>20</v>
       </c>
@@ -11191,17 +11200,17 @@
       <c r="T172" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U172" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C173" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D173" s="1" t="s">
         <v>20</v>
       </c>
@@ -11253,17 +11262,17 @@
       <c r="T173" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U173" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C174" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D174" s="1" t="s">
         <v>20</v>
       </c>
@@ -11315,17 +11324,17 @@
       <c r="T174" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U174" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C175" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D175" s="1" t="s">
         <v>20</v>
       </c>
@@ -11377,17 +11386,17 @@
       <c r="T175" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U175" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C176" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D176" s="1" t="s">
         <v>20</v>
       </c>
@@ -11439,17 +11448,17 @@
       <c r="T176" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U176" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C177" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D177" s="1" t="s">
         <v>20</v>
       </c>
@@ -11501,17 +11510,17 @@
       <c r="T177" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U177" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C178" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D178" s="1" t="s">
         <v>20</v>
       </c>
@@ -11563,17 +11572,17 @@
       <c r="T178" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U178" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C179" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D179" s="1" t="s">
         <v>20</v>
       </c>
@@ -11625,17 +11634,17 @@
       <c r="T179" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U179" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C180" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D180" s="1" t="s">
         <v>20</v>
       </c>
@@ -11687,17 +11696,17 @@
       <c r="T180" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U180" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C181" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D181" s="1" t="s">
         <v>20</v>
       </c>
@@ -11749,17 +11758,17 @@
       <c r="T181" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U181" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C182" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D182" s="1" t="s">
         <v>20</v>
       </c>
@@ -11811,17 +11820,17 @@
       <c r="T182" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U182" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C183" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D183" s="1" t="s">
         <v>20</v>
       </c>
@@ -11873,17 +11882,17 @@
       <c r="T183" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U183" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C184" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D184" s="1" t="s">
         <v>20</v>
       </c>
@@ -11935,17 +11944,17 @@
       <c r="T184" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U184" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C185" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D185" s="1" t="s">
         <v>20</v>
       </c>
@@ -11997,17 +12006,17 @@
       <c r="T185" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U185" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C186" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D186" s="1" t="s">
         <v>20</v>
       </c>
@@ -12059,17 +12068,17 @@
       <c r="T186" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U186" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C187" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D187" s="1" t="s">
         <v>20</v>
       </c>
@@ -12121,17 +12130,17 @@
       <c r="T187" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U187" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C188" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D188" s="1" t="s">
         <v>20</v>
       </c>
@@ -12183,17 +12192,17 @@
       <c r="T188" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U188" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C189" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D189" s="1" t="s">
         <v>20</v>
       </c>
@@ -12245,17 +12254,17 @@
       <c r="T189" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U189" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C190" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D190" s="1" t="s">
         <v>20</v>
       </c>
@@ -12307,17 +12316,17 @@
       <c r="T190" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U190" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C191" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D191" s="1" t="s">
         <v>20</v>
       </c>
@@ -12369,17 +12378,17 @@
       <c r="T191" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U191" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C192" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D192" s="1" t="s">
         <v>20</v>
       </c>
@@ -12431,17 +12440,17 @@
       <c r="T192" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U192" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C193" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D193" s="1" t="s">
         <v>20</v>
       </c>
@@ -12493,17 +12502,17 @@
       <c r="T193" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U193" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C194" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D194" s="1" t="s">
         <v>20</v>
       </c>
@@ -12555,17 +12564,17 @@
       <c r="T194" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U194" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C195" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D195" s="1" t="s">
         <v>20</v>
       </c>
@@ -12617,17 +12626,17 @@
       <c r="T195" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U195" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C196" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D196" s="1" t="s">
         <v>20</v>
       </c>
@@ -12679,17 +12688,17 @@
       <c r="T196" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U196" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C197" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D197" s="1" t="s">
         <v>20</v>
       </c>
@@ -12741,17 +12750,17 @@
       <c r="T197" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U197" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C198" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D198" s="1" t="s">
         <v>20</v>
       </c>
@@ -12803,17 +12812,17 @@
       <c r="T198" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U198" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C199" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D199" s="1" t="s">
         <v>20</v>
       </c>
@@ -12865,17 +12874,17 @@
       <c r="T199" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U199" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C200" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D200" s="1" t="s">
         <v>20</v>
       </c>
@@ -12927,17 +12936,17 @@
       <c r="T200" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U200" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C201" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D201" s="1" t="s">
         <v>20</v>
       </c>
@@ -12989,17 +12998,17 @@
       <c r="T201" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U201" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C202" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D202" s="1" t="s">
         <v>20</v>
       </c>
@@ -13051,17 +13060,17 @@
       <c r="T202" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U202" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C203" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D203" s="1" t="s">
         <v>20</v>
       </c>
@@ -13113,17 +13122,17 @@
       <c r="T203" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U203" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C204" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D204" s="1" t="s">
         <v>20</v>
       </c>
@@ -13175,17 +13184,17 @@
       <c r="T204" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U204" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C205" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D205" s="1" t="s">
         <v>20</v>
       </c>
@@ -13237,17 +13246,17 @@
       <c r="T205" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U205" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C206" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D206" s="1" t="s">
         <v>20</v>
       </c>
@@ -13299,17 +13308,17 @@
       <c r="T206" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U206" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C207" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D207" s="1" t="s">
         <v>20</v>
       </c>
@@ -13361,17 +13370,17 @@
       <c r="T207" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U207" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C208" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D208" s="1" t="s">
         <v>20</v>
       </c>
@@ -13423,17 +13432,17 @@
       <c r="T208" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U208" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C209" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D209" s="1" t="s">
         <v>20</v>
       </c>
@@ -13485,17 +13494,17 @@
       <c r="T209" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U209" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C210" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D210" s="1" t="s">
         <v>20</v>
       </c>
@@ -13547,17 +13556,17 @@
       <c r="T210" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U210" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C211" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D211" s="1" t="s">
         <v>20</v>
       </c>
@@ -13609,17 +13618,17 @@
       <c r="T211" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U211" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D212" s="1" t="s">
         <v>20</v>
       </c>
@@ -13671,17 +13680,17 @@
       <c r="T212" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U212" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D213" s="1" t="s">
         <v>20</v>
       </c>
@@ -13733,17 +13742,17 @@
       <c r="T213" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U213" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D214" s="1" t="s">
         <v>20</v>
       </c>
@@ -13795,17 +13804,17 @@
       <c r="T214" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U214" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D215" s="1" t="s">
         <v>20</v>
       </c>
@@ -13857,17 +13866,17 @@
       <c r="T215" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U215" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D216" s="1" t="s">
         <v>20</v>
       </c>
@@ -13919,17 +13928,17 @@
       <c r="T216" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U216" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D217" s="1" t="s">
         <v>20</v>
       </c>
@@ -13981,17 +13990,17 @@
       <c r="T217" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U217" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D218" s="1" t="s">
         <v>20</v>
       </c>
@@ -14043,17 +14052,17 @@
       <c r="T218" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U218" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D219" s="1" t="s">
         <v>20</v>
       </c>
@@ -14105,17 +14114,17 @@
       <c r="T219" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U219" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D220" s="1" t="s">
         <v>20</v>
       </c>
@@ -14167,17 +14176,17 @@
       <c r="T220" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U220" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D221" s="1" t="s">
         <v>20</v>
       </c>
@@ -14229,17 +14238,17 @@
       <c r="T221" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U221" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D222" s="1" t="s">
         <v>20</v>
       </c>
@@ -14291,17 +14300,17 @@
       <c r="T222" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U222" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D223" s="1" t="s">
         <v>20</v>
       </c>
@@ -14353,17 +14362,17 @@
       <c r="T223" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U223" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D224" s="1" t="s">
         <v>20</v>
       </c>
@@ -14415,17 +14424,17 @@
       <c r="T224" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U224" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D225" s="1" t="s">
         <v>20</v>
       </c>
@@ -14477,17 +14486,17 @@
       <c r="T225" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U225" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C226" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D226" s="1" t="s">
         <v>20</v>
       </c>
@@ -14539,17 +14548,17 @@
       <c r="T226" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U226" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D227" s="1" t="s">
         <v>20</v>
       </c>
@@ -14601,17 +14610,17 @@
       <c r="T227" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U227" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D228" s="1" t="s">
         <v>20</v>
       </c>
@@ -14663,17 +14672,17 @@
       <c r="T228" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U228" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D229" s="1" t="s">
         <v>20</v>
       </c>
@@ -14725,17 +14734,17 @@
       <c r="T229" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U229" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D230" s="1" t="s">
         <v>20</v>
       </c>
@@ -14787,17 +14796,17 @@
       <c r="T230" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U230" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D231" s="1" t="s">
         <v>20</v>
       </c>
@@ -14849,17 +14858,17 @@
       <c r="T231" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U231" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D232" s="1" t="s">
         <v>20</v>
       </c>
@@ -14911,17 +14920,17 @@
       <c r="T232" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U232" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D233" s="1" t="s">
         <v>20</v>
       </c>
@@ -14973,17 +14982,17 @@
       <c r="T233" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U233" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D234" s="1" t="s">
         <v>20</v>
       </c>
@@ -15035,17 +15044,17 @@
       <c r="T234" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U234" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D235" s="1" t="s">
         <v>20</v>
       </c>
@@ -15097,17 +15106,17 @@
       <c r="T235" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U235" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D236" s="1" t="s">
         <v>20</v>
       </c>
@@ -15159,17 +15168,17 @@
       <c r="T236" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U236" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D237" s="1" t="s">
         <v>20</v>
       </c>
@@ -15221,17 +15230,17 @@
       <c r="T237" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U237" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D238" s="1" t="s">
         <v>20</v>
       </c>
@@ -15283,17 +15292,17 @@
       <c r="T238" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U238" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D239" s="1" t="s">
         <v>20</v>
       </c>
@@ -15345,17 +15354,17 @@
       <c r="T239" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U239" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D240" s="1" t="s">
         <v>20</v>
       </c>
@@ -15407,17 +15416,17 @@
       <c r="T240" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U240" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D241" s="1" t="s">
         <v>20</v>
       </c>
@@ -15469,17 +15478,17 @@
       <c r="T241" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U241" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D242" s="1" t="s">
         <v>20</v>
       </c>
@@ -15531,17 +15540,17 @@
       <c r="T242" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U242" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D243" s="1" t="s">
         <v>20</v>
       </c>
@@ -15593,17 +15602,17 @@
       <c r="T243" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U243" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D244" s="1" t="s">
         <v>20</v>
       </c>
@@ -15655,17 +15664,17 @@
       <c r="T244" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U244" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D245" s="1" t="s">
         <v>20</v>
       </c>
@@ -15717,17 +15726,17 @@
       <c r="T245" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U245" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D246" s="1" t="s">
         <v>20</v>
       </c>
@@ -15779,17 +15788,17 @@
       <c r="T246" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U246" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D247" s="1" t="s">
         <v>20</v>
       </c>
@@ -15841,17 +15850,17 @@
       <c r="T247" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U247" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D248" s="1" t="s">
         <v>20</v>
       </c>
@@ -15903,17 +15912,17 @@
       <c r="T248" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U248" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D249" s="1" t="s">
         <v>20</v>
       </c>
@@ -15965,17 +15974,17 @@
       <c r="T249" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U249" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D250" s="1" t="s">
         <v>20</v>
       </c>
@@ -16027,17 +16036,17 @@
       <c r="T250" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U250" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D251" s="1" t="s">
         <v>20</v>
       </c>
@@ -16089,17 +16098,17 @@
       <c r="T251" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U251" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D252" s="1" t="s">
         <v>20</v>
       </c>
@@ -16151,17 +16160,17 @@
       <c r="T252" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U252" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D253" s="1" t="s">
         <v>20</v>
       </c>
@@ -16213,17 +16222,17 @@
       <c r="T253" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U253" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D254" s="1" t="s">
         <v>20</v>
       </c>
@@ -16275,17 +16284,17 @@
       <c r="T254" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U254" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D255" s="1" t="s">
         <v>20</v>
       </c>
@@ -16337,17 +16346,17 @@
       <c r="T255" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U255" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D256" s="1" t="s">
         <v>20</v>
       </c>
@@ -16399,17 +16408,17 @@
       <c r="T256" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U256" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D257" s="1" t="s">
         <v>20</v>
       </c>
@@ -16461,17 +16470,17 @@
       <c r="T257" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U257" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D258" s="1" t="s">
         <v>20</v>
       </c>
@@ -16523,17 +16532,17 @@
       <c r="T258" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U258" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C259" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D259" s="1" t="s">
         <v>20</v>
       </c>
@@ -16585,17 +16594,17 @@
       <c r="T259" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U259" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C260" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D260" s="1" t="s">
         <v>20</v>
       </c>
@@ -16647,17 +16656,17 @@
       <c r="T260" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U260" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C261" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D261" s="1" t="s">
         <v>20</v>
       </c>
@@ -16709,17 +16718,17 @@
       <c r="T261" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U261" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C262" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D262" s="1" t="s">
         <v>20</v>
       </c>
@@ -16771,17 +16780,17 @@
       <c r="T262" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U262" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C263" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D263" s="1" t="s">
         <v>20</v>
       </c>
@@ -16833,17 +16842,17 @@
       <c r="T263" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U263" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C264" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D264" s="1" t="s">
         <v>20</v>
       </c>
@@ -16895,17 +16904,17 @@
       <c r="T264" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U264" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C265" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D265" s="1" t="s">
         <v>20</v>
       </c>
@@ -16957,17 +16966,17 @@
       <c r="T265" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U265" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C266" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D266" s="1" t="s">
         <v>20</v>
       </c>
@@ -17019,17 +17028,17 @@
       <c r="T266" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U266" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C267" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D267" s="1" t="s">
         <v>20</v>
       </c>
@@ -17081,17 +17090,17 @@
       <c r="T267" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U267" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C268" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D268" s="1" t="s">
         <v>20</v>
       </c>
@@ -17143,17 +17152,17 @@
       <c r="T268" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U268" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C269" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D269" s="1" t="s">
         <v>20</v>
       </c>
@@ -17205,17 +17214,17 @@
       <c r="T269" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U269" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C270" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D270" s="1" t="s">
         <v>20</v>
       </c>
@@ -17267,17 +17276,17 @@
       <c r="T270" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U270" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C271" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D271" s="1" t="s">
         <v>20</v>
       </c>
@@ -17329,17 +17338,17 @@
       <c r="T271" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U271" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C272" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D272" s="1" t="s">
         <v>20</v>
       </c>
@@ -17391,17 +17400,17 @@
       <c r="T272" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U272" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C273" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D273" s="1" t="s">
         <v>20</v>
       </c>
@@ -17453,17 +17462,17 @@
       <c r="T273" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U273" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C274" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D274" s="1" t="s">
         <v>20</v>
       </c>
@@ -17515,17 +17524,17 @@
       <c r="T274" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U274" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C275" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D275" s="1" t="s">
         <v>20</v>
       </c>
@@ -17577,17 +17586,17 @@
       <c r="T275" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U275" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C276" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D276" s="1" t="s">
         <v>20</v>
       </c>
@@ -17639,17 +17648,17 @@
       <c r="T276" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U276" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C277" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D277" s="1" t="s">
         <v>20</v>
       </c>
@@ -17701,17 +17710,17 @@
       <c r="T277" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U277" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C278" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D278" s="1" t="s">
         <v>20</v>
       </c>
@@ -17763,17 +17772,17 @@
       <c r="T278" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U278" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C279" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D279" s="1" t="s">
         <v>20</v>
       </c>
@@ -17825,17 +17834,17 @@
       <c r="T279" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U279" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C280" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D280" s="1" t="s">
         <v>20</v>
       </c>
@@ -17887,17 +17896,17 @@
       <c r="T280" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U280" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C281" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D281" s="1" t="s">
         <v>20</v>
       </c>
@@ -17949,17 +17958,17 @@
       <c r="T281" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U281" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D282" s="1" t="s">
         <v>20</v>
       </c>
@@ -18011,17 +18020,17 @@
       <c r="T282" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U282" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C283" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D283" s="1" t="s">
         <v>20</v>
       </c>
@@ -18073,17 +18082,17 @@
       <c r="T283" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U283" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C284" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D284" s="1" t="s">
         <v>20</v>
       </c>
@@ -18135,17 +18144,17 @@
       <c r="T284" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U284" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C285" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D285" s="1" t="s">
         <v>20</v>
       </c>
@@ -18197,17 +18206,17 @@
       <c r="T285" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U285" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C286" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D286" s="1" t="s">
         <v>20</v>
       </c>
@@ -18259,17 +18268,17 @@
       <c r="T286" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U286" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C287" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D287" s="1" t="s">
         <v>20</v>
       </c>
@@ -18321,17 +18330,17 @@
       <c r="T287" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U287" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C288" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D288" s="1" t="s">
         <v>20</v>
       </c>
@@ -18383,17 +18392,17 @@
       <c r="T288" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U288" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C289" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D289" s="1" t="s">
         <v>20</v>
       </c>
@@ -18445,17 +18454,17 @@
       <c r="T289" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U289" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C290" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D290" s="1" t="s">
         <v>20</v>
       </c>
@@ -18507,17 +18516,17 @@
       <c r="T290" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U290" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C291" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D291" s="1" t="s">
         <v>20</v>
       </c>
@@ -18569,17 +18578,17 @@
       <c r="T291" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U291" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C292" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D292" s="1" t="s">
         <v>20</v>
       </c>
@@ -18631,17 +18640,17 @@
       <c r="T292" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U292" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C293" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D293" s="1" t="s">
         <v>20</v>
       </c>
@@ -18693,17 +18702,17 @@
       <c r="T293" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U293" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C294" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D294" s="1" t="s">
         <v>20</v>
       </c>
@@ -18755,17 +18764,17 @@
       <c r="T294" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U294" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C295" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D295" s="1" t="s">
         <v>20</v>
       </c>
@@ -18817,17 +18826,17 @@
       <c r="T295" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U295" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C296" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D296" s="1" t="s">
         <v>20</v>
       </c>
@@ -18879,17 +18888,17 @@
       <c r="T296" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U296" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C297" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D297" s="1" t="s">
         <v>20</v>
       </c>
@@ -18941,17 +18950,17 @@
       <c r="T297" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U297" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C298" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D298" s="1" t="s">
         <v>20</v>
       </c>
@@ -19003,17 +19012,17 @@
       <c r="T298" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U298" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C299" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D299" s="1" t="s">
         <v>20</v>
       </c>
@@ -19065,17 +19074,17 @@
       <c r="T299" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U299" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C300" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="D300" s="1" t="s">
         <v>20</v>
       </c>
@@ -19125,6 +19134,9 @@
         <v>20</v>
       </c>
       <c r="T300" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U300" s="1" t="s">
         <v>20</v>
       </c>
     </row>

--- a/Vasklister/Excel/vaskeliste_v3.0_sample.xlsx
+++ b/Vasklister/Excel/vaskeliste_v3.0_sample.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="24000" windowHeight="11130"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19200" windowHeight="11130"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6008" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5989" uniqueCount="30">
   <si>
     <t>debitor_ident</t>
   </si>
@@ -79,42 +79,6 @@
     <t/>
   </si>
   <si>
-    <t>13088334935</t>
-  </si>
-  <si>
-    <t>267794</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>7100</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>FJELLHAMAR</t>
-  </si>
-  <si>
-    <t>984661185</t>
-  </si>
-  <si>
-    <t>POSTEN NORGE AS</t>
-  </si>
-  <si>
-    <t>Lørenskogveien 50_x000D_</t>
-  </si>
-  <si>
-    <t>1470 LØRENSKOG_x000D_</t>
-  </si>
-  <si>
-    <t>8 333,33</t>
-  </si>
-  <si>
     <t>_4_beløp</t>
   </si>
   <si>
@@ -139,16 +103,7 @@
     <t>_4_Message</t>
   </si>
   <si>
-    <t>AG</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
     <t>Kommune_Nr</t>
-  </si>
-  <si>
-    <t>11111</t>
   </si>
 </sst>
 </file>
@@ -492,10 +447,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC300"/>
+  <dimension ref="A1:AC299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,8 +467,10 @@
     <col min="16" max="19" width="11.42578125" style="1"/>
     <col min="20" max="20" width="19.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" style="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
-    <col min="25" max="25" width="15.85546875" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" style="1" customWidth="1"/>
+    <col min="23" max="24" width="11.42578125" style="1"/>
+    <col min="25" max="25" width="15.85546875" style="1" customWidth="1"/>
+    <col min="26" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" x14ac:dyDescent="0.25">
@@ -523,8 +480,8 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>43</v>
+      <c r="C1" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -578,90 +535,93 @@
         <v>17</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="Q2" s="1" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="R2" s="1" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="S2" s="1" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="U2" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:29" x14ac:dyDescent="0.25">
@@ -4583,7 +4543,7 @@
       <c r="E66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G66" s="1" t="s">
@@ -4592,7 +4552,7 @@
       <c r="H66" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="1" t="s">
         <v>20</v>
       </c>
       <c r="J66" s="1" t="s">
@@ -19078,69 +19038,8 @@
         <v>20</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="M300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="N300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="O300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="P300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="R300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="S300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="T300" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="U300" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>